--- a/documentos/Historias de usuario/Historia de usuario.xlsx
+++ b/documentos/Historias de usuario/Historia de usuario.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="HU Empresa" sheetId="1" r:id="rId1"/>
     <sheet name="HU Persona" sheetId="2" r:id="rId2"/>
-    <sheet name="HU Talla" sheetId="3" r:id="rId3"/>
-    <sheet name="HU Color" sheetId="4" r:id="rId4"/>
-    <sheet name="HU Tipo Cliente" sheetId="5" r:id="rId5"/>
-    <sheet name="HU Tipo producto" sheetId="6" r:id="rId6"/>
-    <sheet name="HU Usuario" sheetId="7" r:id="rId7"/>
+    <sheet name="HU Usuario" sheetId="7" r:id="rId3"/>
+    <sheet name="HU Tipo Cliente" sheetId="5" r:id="rId4"/>
+    <sheet name="HU Talla" sheetId="3" r:id="rId5"/>
+    <sheet name="HU Color" sheetId="4" r:id="rId6"/>
+    <sheet name="HU Tipo producto" sheetId="6" r:id="rId7"/>
     <sheet name="HU Bodega" sheetId="8" r:id="rId8"/>
+    <sheet name="HU Producto" sheetId="9" r:id="rId9"/>
+    <sheet name="HU OrdenCompra" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>Código</t>
   </si>
@@ -208,7 +210,47 @@
     <t>valida la información del producto</t>
   </si>
   <si>
-    <t>Se verifica que el prod</t>
+    <t>Se verifica que el producto especificado exista en la parametrización del sistema</t>
+  </si>
+  <si>
+    <t>El aplicativo verifica automáticamente si existe el registro; si existe se visualizará la información de los registros, en caso contrario, se mostrará un mensaje indicando que no se contiene la información solicitada</t>
+  </si>
+  <si>
+    <t>El aplicativo lista automáticamente el registro de los productos de la bodega que fueron consultado previamente, ubicado sobre el registro realiza la actualizados según la necesidad.</t>
+  </si>
+  <si>
+    <t>Registro de productos</t>
+  </si>
+  <si>
+    <t>Se especifica la información del producto; el aplicativo indicará los datos requeridos para realizar el registro con datos mínimos, los cuales son:
+Referencia/Código producto, 
+Descripción/nombre del producto,
+Costo,
+Cantidad,
+Talla,
+Color,
+Estado</t>
+  </si>
+  <si>
+    <t>Validar la existencia del producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El aplicativo verifica automáticamente si el producto ya esta registrado mediante la referencia o código del producto, Si existe notificará y no permitirá el registro, de lo contrario lo registrará. </t>
+  </si>
+  <si>
+    <t>El aplicativo lista automáticamente los datos del producto previamente consultado para poder ser actualizados según 
+la necesidad.</t>
+  </si>
+  <si>
+    <t>Registro de la orden de compra</t>
+  </si>
+  <si>
+    <t>Se especifica la información de la orden de compra; el aplicativo indicará los datos requeridos para realizar el registro datos mínimos, los cuales son:
+Fecha,
+Tipo de cliente,
+Producto,
+Cantidad de producto,
+Total del producto</t>
   </si>
 </sst>
 </file>
@@ -338,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -383,6 +425,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,6 +446,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,6 +1277,638 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4321969</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1440658</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="1 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1166812" y="488156"/>
+          <a:ext cx="4202907" cy="1345408"/>
+          <a:chOff x="1136506" y="638608"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="2 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1136506" y="638608"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="3 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1309688" y="855085"/>
+            <a:ext cx="3268806" cy="901620"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Pedro Perlaza</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Almacenista</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: especificar una orden de compra</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: generar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> la  orden de compra</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129645</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>117739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4426478</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1107282</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="4 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1177395" y="2082270"/>
+          <a:ext cx="4296833" cy="989543"/>
+          <a:chOff x="1266392" y="648900"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="5 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266392" y="648900"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="6 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1385455" y="793337"/>
+            <a:ext cx="3268806" cy="941842"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Pedro Perlaza</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Almacenista</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: consultar información de una orden de compra</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: conocer el detalle de la orden de compra</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4347118</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>238126</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="7 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1166813" y="3274220"/>
+          <a:ext cx="4228055" cy="1440656"/>
+          <a:chOff x="1266392" y="648900"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="8 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266392" y="648900"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="9 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1385455" y="793337"/>
+            <a:ext cx="3268806" cy="941842"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Pedro Perlaza</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Almacenista</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>conocer el detalle de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> una orden de compra </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: actualizar sus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>datos principales </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2139,6 +2826,1752 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4321968</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1428751</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="1 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1154905" y="488157"/>
+          <a:ext cx="4226719" cy="1333500"/>
+          <a:chOff x="1136506" y="638608"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="2 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1136506" y="638608"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="3 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1309688" y="855084"/>
+            <a:ext cx="3268806" cy="794102"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Pedro Perlaza</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Administrador del sistema</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: crear un</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> usuario</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: almacenar la </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> cuenta del  usuario del sistema</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89957</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>132819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4397375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1452562</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="4 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1149613" y="3252257"/>
+          <a:ext cx="4307418" cy="1319743"/>
+          <a:chOff x="1266392" y="648900"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="5 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266392" y="648900"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="6 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1385455" y="793336"/>
+            <a:ext cx="3487224" cy="910661"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Pedro Perlaza</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Administrador del sistema</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: listar la información  de los usuarios </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100" baseline="0">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: conocer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> los datos de los usuarios registrados en el sistema</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129645</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>117741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4426478</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1178719</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="7 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1189301" y="4761179"/>
+          <a:ext cx="4296833" cy="1060978"/>
+          <a:chOff x="1266392" y="648900"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="8 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266392" y="648900"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="9 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1385455" y="793337"/>
+            <a:ext cx="3268806" cy="941842"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Pedro Perlaza</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Administrador del sistema</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: consultar información de usuario</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: conocer datos de un usuario del sistema</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4347118</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>595312</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="10 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1178719" y="6167438"/>
+          <a:ext cx="4228055" cy="1035843"/>
+          <a:chOff x="1266392" y="648900"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="11 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266392" y="648900"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="12 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1385455" y="793337"/>
+            <a:ext cx="3268806" cy="941842"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Pedro Perlaza</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Administrador del sistema</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>conocer el detalle de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>un usuario</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> en especifico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: actualizar sus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>datos </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4405313</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1416844</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="4 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1214438" y="547687"/>
+          <a:ext cx="4274344" cy="1262063"/>
+          <a:chOff x="1136506" y="638608"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="5 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1136506" y="638608"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="6 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1309688" y="855085"/>
+            <a:ext cx="3268806" cy="901620"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Pedro Perlaza</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Administrador del sistema</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: registrar </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> el tipo de cliente</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: almacenar la</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> parametrización de los tipos de clientes </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4369593</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1404937</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="7 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1226344" y="2345531"/>
+          <a:ext cx="4226718" cy="1273969"/>
+          <a:chOff x="1136506" y="638608"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="8 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1136506" y="638608"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="9 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1309688" y="855085"/>
+            <a:ext cx="3268806" cy="901620"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Pedro Perlaza</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Administrador del sistema</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: enlistar </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>los  tipos de clientes existentes      </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: especificar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>  el tipo de cliente el cual es requerido para la creación de la orden de compra</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129646</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>117741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4345782</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1381125</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="10 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1213115" y="3784866"/>
+          <a:ext cx="4216136" cy="1263384"/>
+          <a:chOff x="1266392" y="648900"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="11 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266392" y="648900"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="12 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1385455" y="793338"/>
+            <a:ext cx="3268806" cy="794815"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Pedro Perlaza</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Administrador del sistema</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: consultar información de un tipo de cliente</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: conocer su</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> detalle</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>119064</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4369594</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1202531</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="13 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1202533" y="5381627"/>
+          <a:ext cx="4250530" cy="1095373"/>
+          <a:chOff x="1266392" y="648900"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="14 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266392" y="648900"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="15 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1385455" y="793336"/>
+            <a:ext cx="3268806" cy="1005399"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Pedro Perlaza</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Administrador del sistema</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: conocer el detalle del tipo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> de cliente                                         </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: actualizar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> su registro </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>154781</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>321468</xdr:rowOff>
@@ -3039,7 +5472,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3866,7 +6299,7 @@
                 <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>: comocer del detalle de un color</a:t>
+              <a:t>: conocer del detalle de un color</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-CO" sz="1100" baseline="0">
@@ -3911,866 +6344,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>130969</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4405313</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1416844</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="4 Grupo"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1214438" y="547687"/>
-          <a:ext cx="4274344" cy="1262063"/>
-          <a:chOff x="1136506" y="638608"/>
-          <a:chExt cx="3615170" cy="1255568"/>
-        </a:xfrm>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="5 Rectángulo redondeado"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1136506" y="638608"/>
-            <a:ext cx="3615170" cy="1255568"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-CO" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="6 CuadroTexto"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1309688" y="855085"/>
-            <a:ext cx="3268806" cy="901620"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>YO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Pedro Perlaza</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>COMO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: Administrador del sistema</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>DESEO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: registrar </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> el tipo de cliente</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>PARA</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: almacenar la</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> parametrización de los tipos de clientes </a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO" sz="1100">
-              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4369593</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1404937</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="7 Grupo"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1226344" y="2345531"/>
-          <a:ext cx="4226718" cy="1273969"/>
-          <a:chOff x="1136506" y="638608"/>
-          <a:chExt cx="3615170" cy="1255568"/>
-        </a:xfrm>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="8 Rectángulo redondeado"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1136506" y="638608"/>
-            <a:ext cx="3615170" cy="1255568"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-CO" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="9 CuadroTexto"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1309688" y="855085"/>
-            <a:ext cx="3268806" cy="901620"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>YO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Pedro Perlaza</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>COMO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: Administrador del sistema</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>DESEO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: enlistar </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>los  tipos de clientes existentes      </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>PARA</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: especificar</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>  el tipo de cliente el cual es requerido para la creación de la orden de compra</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO" sz="1100">
-              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>129646</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>117741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4345782</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1381125</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="10 Grupo"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1213115" y="3784866"/>
-          <a:ext cx="4216136" cy="1263384"/>
-          <a:chOff x="1266392" y="648900"/>
-          <a:chExt cx="3615170" cy="1255568"/>
-        </a:xfrm>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="11 Rectángulo redondeado"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1266392" y="648900"/>
-            <a:ext cx="3615170" cy="1255568"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-CO" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="12 CuadroTexto"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1385455" y="793338"/>
-            <a:ext cx="3268806" cy="794815"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>YO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> Pedro Perlaza</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>COMO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: Administrador del sistema</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>DESEO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: consultar información de un tipo de cliente</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>PARA</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: conocer su</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> detalle</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO" sz="1100">
-              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>119064</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>107158</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4369594</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1202531</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="13 Grupo"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1202533" y="5381627"/>
-          <a:ext cx="4250530" cy="1095373"/>
-          <a:chOff x="1266392" y="648900"/>
-          <a:chExt cx="3615170" cy="1255568"/>
-        </a:xfrm>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="14 Rectángulo redondeado"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1266392" y="648900"/>
-            <a:ext cx="3615170" cy="1255568"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-CO" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="15 CuadroTexto"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1385455" y="793336"/>
-            <a:ext cx="3268806" cy="1005399"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>YO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> Pedro Perlaza</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>COMO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: Administrador del sistema</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>DESEO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: conocer el detalle del tipo</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> de cliente                                         </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>PARA</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: actualizar</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> su registro </a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO" sz="1100">
-              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5856,893 +7430,6 @@
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4321968</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1428751</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="1 Grupo"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1154905" y="488157"/>
-          <a:ext cx="4226719" cy="1333500"/>
-          <a:chOff x="1136506" y="638608"/>
-          <a:chExt cx="3615170" cy="1255568"/>
-        </a:xfrm>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="2 Rectángulo redondeado"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1136506" y="638608"/>
-            <a:ext cx="3615170" cy="1255568"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-CO" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="3 CuadroTexto"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1309688" y="855084"/>
-            <a:ext cx="3268806" cy="794102"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>YO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Pedro Perlaza</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>COMO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: Administrador del sistema</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>DESEO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: crear un</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> usuario</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>PARA</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: almacenar la </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> cuenta del  usuario del sistema</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO" sz="1100">
-              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>89957</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>132819</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4397375</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1452562</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="4 Grupo"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1149613" y="3252257"/>
-          <a:ext cx="4307418" cy="1319743"/>
-          <a:chOff x="1266392" y="648900"/>
-          <a:chExt cx="3615170" cy="1255568"/>
-        </a:xfrm>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="5 Rectángulo redondeado"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1266392" y="648900"/>
-            <a:ext cx="3615170" cy="1255568"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-CO" sz="1100">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="6 CuadroTexto"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1385455" y="793336"/>
-            <a:ext cx="3487224" cy="910661"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>YO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Pedro Perlaza</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>COMO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: Administrador del sistema</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>DESEO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: listar la información  de los usuarios </a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO" sz="1100" baseline="0">
-              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>PARA</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: conocer</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> los datos de los usuarios registrados en el sistema</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO" sz="1100">
-              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>129645</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>117741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4426478</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1178719</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="7 Grupo"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1189301" y="4761179"/>
-          <a:ext cx="4296833" cy="1060978"/>
-          <a:chOff x="1266392" y="648900"/>
-          <a:chExt cx="3615170" cy="1255568"/>
-        </a:xfrm>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="8 Rectángulo redondeado"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1266392" y="648900"/>
-            <a:ext cx="3615170" cy="1255568"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-CO" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="9 CuadroTexto"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1385455" y="793337"/>
-            <a:ext cx="3268806" cy="941842"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>YO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> Pedro Perlaza</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>COMO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: Administrador del sistema</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>DESEO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: consultar información de usuario</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>PARA</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: conocer datos de un usuario del sistema</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>107157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4347118</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>595312</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="10 Grupo"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1178719" y="6167438"/>
-          <a:ext cx="4228055" cy="1035843"/>
-          <a:chOff x="1266392" y="648900"/>
-          <a:chExt cx="3615170" cy="1255568"/>
-        </a:xfrm>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="11 Rectángulo redondeado"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1266392" y="648900"/>
-            <a:ext cx="3615170" cy="1255568"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-CO" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="12 CuadroTexto"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1385455" y="793337"/>
-            <a:ext cx="3268806" cy="941842"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>YO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> Pedro Perlaza</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>COMO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: Administrador del sistema</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>DESEO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>conocer el detalle de </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>un usuario</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> en especifico</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" b="1">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>PARA</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: actualizar sus</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1100">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>datos </a:t>
-            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -6983,6 +7670,1328 @@
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4548186</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1393031</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="4 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1272646" y="2403740"/>
+          <a:ext cx="4347103" cy="1287197"/>
+          <a:chOff x="1266392" y="648900"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="5 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266392" y="648900"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="6 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1385455" y="793338"/>
+            <a:ext cx="3268806" cy="794815"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Pedro Perlaza</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Almacenista</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: consultar información de la</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> bodega</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: conocer el</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> detalle de lo almacenado</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4488655</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1035843</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="7 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1226345" y="4036220"/>
+          <a:ext cx="4333873" cy="928686"/>
+          <a:chOff x="1266392" y="648900"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="8 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266392" y="648900"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="9 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1385455" y="793336"/>
+            <a:ext cx="3268806" cy="1005399"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Pedro Perlaza</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Almacenista</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: conocer del detalle de un color</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>                                         </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: actualizar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> su registro </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4476751</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1797844</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="1 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1233489" y="521494"/>
+          <a:ext cx="4310062" cy="1666875"/>
+          <a:chOff x="1136506" y="638608"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="2 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1136506" y="638608"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="3 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1309688" y="855085"/>
+            <a:ext cx="3268806" cy="722803"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Pedro Perlaza</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Almacenista</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: registrar </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>el producto</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: almacenar la</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> parametrización de los productos que se manejan </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>220925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>132820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4528343</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1464469</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="4 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1287725" y="3580870"/>
+          <a:ext cx="4307418" cy="1331649"/>
+          <a:chOff x="1266392" y="648900"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="5 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266392" y="648900"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="6 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1385455" y="793336"/>
+            <a:ext cx="3487224" cy="910661"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Pedro Perlaza</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Almacenista</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: listar la información de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> los productos</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: conocer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>  el detalle del producto</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129645</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>117739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4426478</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="7 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1196445" y="5185039"/>
+          <a:ext cx="4296833" cy="1215761"/>
+          <a:chOff x="1266392" y="648900"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="8 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266392" y="648900"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="9 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1385455" y="793337"/>
+            <a:ext cx="3268806" cy="941842"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Pedro Perlaza</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Almacenista</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: consultar información de un </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>producto</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: conocer sus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>datos específicos </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4347118</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="10 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1185863" y="6850856"/>
+          <a:ext cx="4228055" cy="1226344"/>
+          <a:chOff x="1266392" y="648900"/>
+          <a:chExt cx="3615170" cy="1255568"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="11 Rectángulo redondeado"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266392" y="648900"/>
+            <a:ext cx="3615170" cy="1255568"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="12 CuadroTexto"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1385455" y="793337"/>
+            <a:ext cx="3268806" cy="941842"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>YO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Pedro Perlaza</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>COMO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: Almacenista</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DESEO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>conocer el detalle de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>un producto</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> especifico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" b="1">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PARA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>: actualizar sus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>datos principales </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7281,8 +9290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7311,10 +9320,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
@@ -7323,8 +9332,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -7333,8 +9342,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
@@ -7367,10 +9376,10 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>4</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
@@ -7379,8 +9388,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
@@ -7401,12 +9410,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="71" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7433,10 +9529,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="185.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
@@ -7445,8 +9541,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -7455,8 +9551,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -7489,10 +9585,10 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>4</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
@@ -7501,8 +9597,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
@@ -7524,6 +9620,213 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="71" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>4</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="71" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E9"/>
   <sheetViews>
@@ -7555,10 +9858,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
@@ -7567,8 +9870,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -7577,8 +9880,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
@@ -7611,10 +9914,10 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
+      <c r="B8" s="24">
         <v>4</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
@@ -7623,8 +9926,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
@@ -7644,12 +9947,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7712,10 +10015,10 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+      <c r="B6" s="24">
         <v>4</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
@@ -7724,8 +10027,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
@@ -7743,93 +10046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="3" max="3" width="71" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="67.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
-        <v>4</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E7"/>
   <sheetViews>
@@ -7926,133 +10143,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="71" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="67.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <v>4</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8079,10 +10175,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
@@ -8090,7 +10186,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="3" t="s">
         <v>48</v>
       </c>
@@ -8098,15 +10196,156 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
+    <row r="5" spans="2:5" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
+    <row r="6" spans="2:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="71" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27">
+        <v>2</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>4</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
